--- a/aspnet-core/src/KiemKeDatDai.Web.Host/wwwroot/Templates/excels/Template_Bieu04TKKK.xlsx
+++ b/aspnet-core/src/KiemKeDatDai.Web.Host/wwwroot/Templates/excels/Template_Bieu04TKKK.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
   <si>
     <t>CỘNG HÒA XÃ HỘI CHỦ NGHĨA VIỆT NAM</t>
   </si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t>&amp;=Data.CongDongDanCu_CDQ_CC</t>
+  </si>
+  <si>
+    <t>&amp;=Data.TongSo_DT</t>
   </si>
 </sst>
 </file>
@@ -759,6 +762,114 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -781,151 +892,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -1210,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:W20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -3653,76 +3626,76 @@
     <row r="1" spans="1:37" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
     </row>
     <row r="2" spans="1:37" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AF2" s="73" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AF2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="73"/>
-      <c r="AJ2" s="73"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
       <c r="AK2" s="3"/>
     </row>
     <row r="3" spans="1:37" s="2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.35">
@@ -3765,121 +3738,121 @@
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="70"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="70"/>
-      <c r="X4" s="70"/>
-      <c r="Y4" s="70"/>
-      <c r="Z4" s="70"/>
-      <c r="AA4" s="70"/>
-      <c r="AB4" s="70"/>
-      <c r="AC4" s="70"/>
-      <c r="AF4" s="60" t="s">
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AF4" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="60"/>
-      <c r="AI4" s="60"/>
-      <c r="AJ4" s="60"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="34"/>
       <c r="AK4" s="10"/>
     </row>
     <row r="5" spans="1:37" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="59"/>
-      <c r="Z5" s="59"/>
-      <c r="AA5" s="59"/>
-      <c r="AB5" s="59"/>
-      <c r="AC5" s="59"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
       <c r="AE5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AF5" s="60" t="s">
+      <c r="AF5" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="AG5" s="60"/>
-      <c r="AH5" s="60"/>
-      <c r="AI5" s="60"/>
-      <c r="AJ5" s="60"/>
+      <c r="AG5" s="34"/>
+      <c r="AH5" s="34"/>
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="34"/>
     </row>
     <row r="6" spans="1:37" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
-      <c r="AC6" s="61"/>
-      <c r="AF6" s="60" t="s">
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="46"/>
+      <c r="AC6" s="46"/>
+      <c r="AF6" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="AG6" s="60"/>
-      <c r="AH6" s="60"/>
-      <c r="AI6" s="60"/>
-      <c r="AJ6" s="60"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="34"/>
+      <c r="AJ6" s="34"/>
     </row>
     <row r="7" spans="1:37" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F7" s="11"/>
@@ -3907,182 +3880,182 @@
       <c r="AB7" s="11"/>
       <c r="AC7" s="11"/>
       <c r="AD7" s="12"/>
-      <c r="AF7" s="62"/>
-      <c r="AG7" s="62"/>
-      <c r="AH7" s="62"/>
-      <c r="AI7" s="62"/>
-      <c r="AJ7" s="62"/>
-      <c r="AK7" s="62"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="47"/>
+      <c r="AI7" s="47"/>
+      <c r="AJ7" s="47"/>
+      <c r="AK7" s="47"/>
     </row>
     <row r="8" spans="1:37" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="67" t="s">
+      <c r="E8" s="37"/>
+      <c r="F8" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="68"/>
-      <c r="T8" s="68"/>
-      <c r="U8" s="68"/>
-      <c r="V8" s="68"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="68"/>
-      <c r="Z8" s="68"/>
-      <c r="AA8" s="68"/>
-      <c r="AB8" s="68"/>
-      <c r="AC8" s="69"/>
-      <c r="AD8" s="52" t="s">
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="AE8" s="52"/>
-      <c r="AF8" s="52"/>
-      <c r="AG8" s="52"/>
-      <c r="AH8" s="52"/>
-      <c r="AI8" s="52"/>
-      <c r="AJ8" s="52"/>
-      <c r="AK8" s="52"/>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="35"/>
+      <c r="AI8" s="35"/>
+      <c r="AJ8" s="35"/>
+      <c r="AK8" s="35"/>
     </row>
     <row r="9" spans="1:37" s="13" customFormat="1" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="52"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="53" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="56" t="s">
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="38" t="s">
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="U9" s="39"/>
-      <c r="V9" s="38" t="s">
+      <c r="U9" s="55"/>
+      <c r="V9" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="W9" s="39"/>
-      <c r="X9" s="38" t="s">
+      <c r="W9" s="55"/>
+      <c r="X9" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="38" t="s">
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="38" t="s">
+      <c r="AA9" s="55"/>
+      <c r="AB9" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="38" t="s">
+      <c r="AC9" s="55"/>
+      <c r="AD9" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="38" t="s">
+      <c r="AE9" s="55"/>
+      <c r="AF9" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="AG9" s="39"/>
-      <c r="AH9" s="38" t="s">
+      <c r="AG9" s="55"/>
+      <c r="AH9" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="AI9" s="39"/>
-      <c r="AJ9" s="38" t="s">
+      <c r="AI9" s="55"/>
+      <c r="AJ9" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="AK9" s="39"/>
+      <c r="AK9" s="55"/>
     </row>
     <row r="10" spans="1:37" s="13" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="52"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="42" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="43"/>
-      <c r="H10" s="44" t="s">
+      <c r="G10" s="59"/>
+      <c r="H10" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="45"/>
-      <c r="J10" s="46" t="s">
+      <c r="I10" s="41"/>
+      <c r="J10" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="46"/>
-      <c r="L10" s="47" t="s">
+      <c r="K10" s="60"/>
+      <c r="L10" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="47"/>
-      <c r="N10" s="48" t="s">
+      <c r="M10" s="61"/>
+      <c r="N10" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="49"/>
-      <c r="P10" s="47" t="s">
+      <c r="O10" s="63"/>
+      <c r="P10" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="50" t="s">
+      <c r="Q10" s="61"/>
+      <c r="R10" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="S10" s="51"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="41"/>
-      <c r="AF10" s="40"/>
-      <c r="AG10" s="41"/>
-      <c r="AH10" s="40"/>
-      <c r="AI10" s="41"/>
-      <c r="AJ10" s="40"/>
-      <c r="AK10" s="41"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="57"/>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="56"/>
+      <c r="AG10" s="57"/>
+      <c r="AH10" s="56"/>
+      <c r="AI10" s="57"/>
+      <c r="AJ10" s="56"/>
+      <c r="AK10" s="57"/>
     </row>
     <row r="11" spans="1:37" s="13" customFormat="1" ht="45.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="14" t="s">
         <v>30</v>
       </c>
@@ -4310,7 +4283,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="E13" s="29" t="s">
         <v>48</v>
@@ -4413,63 +4386,63 @@
       </c>
     </row>
     <row r="14" spans="1:37" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
       <c r="E14" s="19"/>
-      <c r="Z14" s="33" t="s">
+      <c r="Z14" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="33"/>
-      <c r="AG14" s="33"/>
+      <c r="AA14" s="69"/>
+      <c r="AB14" s="69"/>
+      <c r="AC14" s="69"/>
+      <c r="AD14" s="69"/>
+      <c r="AE14" s="69"/>
+      <c r="AF14" s="69"/>
+      <c r="AG14" s="69"/>
       <c r="AH14" s="20"/>
       <c r="AI14" s="20"/>
       <c r="AJ14" s="20"/>
       <c r="AK14" s="21"/>
     </row>
     <row r="15" spans="1:37" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="Z15" s="35" t="s">
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="Z15" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="AA15" s="35"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="35"/>
-      <c r="AD15" s="35"/>
-      <c r="AE15" s="35"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="35"/>
+      <c r="AA15" s="71"/>
+      <c r="AB15" s="71"/>
+      <c r="AC15" s="71"/>
+      <c r="AD15" s="71"/>
+      <c r="AE15" s="71"/>
+      <c r="AF15" s="71"/>
+      <c r="AG15" s="71"/>
       <c r="AH15" s="22"/>
       <c r="AI15" s="22"/>
       <c r="AJ15" s="22"/>
     </row>
     <row r="16" spans="1:37" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="Z16" s="37" t="s">
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="Z16" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="AA16" s="37"/>
-      <c r="AB16" s="37"/>
-      <c r="AC16" s="37"/>
-      <c r="AD16" s="37"/>
-      <c r="AE16" s="37"/>
-      <c r="AF16" s="37"/>
-      <c r="AG16" s="37"/>
+      <c r="AA16" s="73"/>
+      <c r="AB16" s="73"/>
+      <c r="AC16" s="73"/>
+      <c r="AD16" s="73"/>
+      <c r="AE16" s="73"/>
+      <c r="AF16" s="73"/>
+      <c r="AG16" s="73"/>
       <c r="AH16" s="22"/>
       <c r="AI16" s="22"/>
       <c r="AJ16" s="22"/>
@@ -4523,31 +4496,31 @@
       <c r="AJ19" s="22"/>
     </row>
     <row r="20" spans="1:36" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="67"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="67"/>
+      <c r="U20" s="67"/>
+      <c r="V20" s="67"/>
+      <c r="W20" s="67"/>
       <c r="AD20" s="24"/>
       <c r="AE20" s="24"/>
       <c r="AF20" s="24"/>
@@ -4556,22 +4529,13 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="D1:AC1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:AC2"/>
-    <mergeCell ref="AF2:AJ2"/>
-    <mergeCell ref="D4:AC4"/>
-    <mergeCell ref="AF4:AJ4"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:E10"/>
-    <mergeCell ref="F8:AC8"/>
-    <mergeCell ref="D5:AC5"/>
-    <mergeCell ref="AF5:AJ5"/>
-    <mergeCell ref="D6:AC6"/>
-    <mergeCell ref="AF6:AJ6"/>
-    <mergeCell ref="AF7:AK7"/>
+    <mergeCell ref="A20:W20"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="Z14:AG14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="Z15:AG15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="Z16:AG16"/>
     <mergeCell ref="AD8:AK8"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:S9"/>
@@ -4588,19 +4552,28 @@
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="L10:M10"/>
+    <mergeCell ref="D5:AC5"/>
+    <mergeCell ref="AF5:AJ5"/>
+    <mergeCell ref="D6:AC6"/>
+    <mergeCell ref="AF6:AJ6"/>
+    <mergeCell ref="AF7:AK7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:E10"/>
+    <mergeCell ref="F8:AC8"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="R10:S10"/>
-    <mergeCell ref="A20:W20"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="Z14:AG14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="Z15:AG15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="Z16:AG16"/>
+    <mergeCell ref="D1:AC1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:AC2"/>
+    <mergeCell ref="AF2:AJ2"/>
+    <mergeCell ref="D4:AC4"/>
+    <mergeCell ref="AF4:AJ4"/>
   </mergeCells>
   <conditionalFormatting sqref="A13">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>OR($C13="TS",$C13="NNP",$C13="CHN",$C13="CLN",$C13="LNP",$C13="NTS",$C13="CNT",$C13="LMU",$C13="NKH",$C13="PNN",$C13="OTC",$C13="TSC",$C13="CQA",$C13="DSN",$C13="CSK",$C13="CCC",$C13="TON",$C13="TIN",$C13="NTD",$C13="TVC",$C13="PNK",$C13="CSD")</formula>
     </cfRule>
   </conditionalFormatting>
